--- a/html/data/Club.xlsx
+++ b/html/data/Club.xlsx
@@ -403,6 +403,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
